--- a/app/data/absenteeism_data_23.xlsx
+++ b/app/data/absenteeism_data_23.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94432</v>
+        <v>80972</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Rodrigo Cavalcanti</t>
+          <t>Antônio Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>10697.05</v>
+        <v>6302.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18992</v>
+        <v>29724</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Júlia Santos</t>
+          <t>Alana Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>10488.97</v>
+        <v>3107.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66809</v>
+        <v>54415</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cecília Alves</t>
+          <t>Rafaela Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>9375.33</v>
+        <v>5086.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4927</v>
+        <v>57535</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sabrina Pinto</t>
+          <t>Maria Julia Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>11425.89</v>
+        <v>4498.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70390</v>
+        <v>22640</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Luiz Felipe Pinto</t>
+          <t>Marina Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>10349.38</v>
+        <v>4989.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36505</v>
+        <v>2129</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Leonardo Barbosa</t>
+          <t>Diogo da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>3325.61</v>
+        <v>4034.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64314</v>
+        <v>3746</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Cavalcanti</t>
+          <t>Yasmin da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>2875.29</v>
+        <v>10270.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72810</v>
+        <v>68670</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joana Castro</t>
+          <t>Pietro Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>6100.21</v>
+        <v>2969.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78388</v>
+        <v>25413</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Helena Oliveira</t>
+          <t>Sra. Daniela Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>3189.6</v>
+        <v>10925.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18869</v>
+        <v>46453</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bernardo Monteiro</t>
+          <t>Alexandre da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>6237.67</v>
+        <v>4843.34</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_23.xlsx
+++ b/app/data/absenteeism_data_23.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8301</v>
+        <v>57446</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mirella Cardoso</t>
+          <t>Pietro Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,113 +490,113 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>11634.39</v>
+        <v>11809.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7722</v>
+        <v>13216</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaac Rezende</t>
+          <t>Larissa Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>4493.37</v>
+        <v>4889.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82008</v>
+        <v>41605</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur Lima</t>
+          <t>Anthony Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>6381.18</v>
+        <v>5761.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59563</v>
+        <v>20757</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>André da Paz</t>
+          <t>Alícia Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>2813.87</v>
+        <v>5780.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90382</v>
+        <v>6096</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura Lopes</t>
+          <t>Ian Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>10450.23</v>
+        <v>2642.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1771</v>
+        <v>99833</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heloísa Nogueira</t>
+          <t>Marcela Martins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>9050.860000000001</v>
+        <v>5693.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37051</v>
+        <v>91661</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Pedro Jesus</t>
+          <t>Ana Beatriz Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>11156.25</v>
+        <v>6062.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26375</v>
+        <v>38943</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitória da Costa</t>
+          <t>Nina Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>3312</v>
+        <v>5874.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37699</v>
+        <v>60850</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kaique Pires</t>
+          <t>Bárbara Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>9123.92</v>
+        <v>12282.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15982</v>
+        <v>60765</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Júlia Barros</t>
+          <t>Erick Ferreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>12240.44</v>
+        <v>6341.93</v>
       </c>
     </row>
   </sheetData>
